--- a/GroceryApplication/src/test/resources/GroceryTestData.xlsx
+++ b/GroceryApplication/src/test/resources/GroceryTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15435" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
@@ -24,7 +25,10 @@
     <t xml:space="preserve"> admin</t>
   </si>
   <si>
-    <t>admin1</t>
+    <t>invalid psd</t>
+  </si>
+  <si>
+    <t>invalid user</t>
   </si>
 </sst>
 </file>
@@ -359,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -382,7 +386,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -390,7 +394,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
